--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3966.509157289135</v>
+        <v>4133.055563707857</v>
       </c>
       <c r="AB2" t="n">
-        <v>5427.152819037148</v>
+        <v>5655.028959808146</v>
       </c>
       <c r="AC2" t="n">
-        <v>4909.192971044858</v>
+        <v>5115.320932766837</v>
       </c>
       <c r="AD2" t="n">
-        <v>3966509.157289135</v>
+        <v>4133055.563707857</v>
       </c>
       <c r="AE2" t="n">
-        <v>5427152.819037148</v>
+        <v>5655028.959808147</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.578570727699228e-07</v>
+        <v>1.112140021886361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4909192.971044858</v>
+        <v>5115320.932766837</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1858.56800298083</v>
+        <v>1962.542252826046</v>
       </c>
       <c r="AB3" t="n">
-        <v>2542.9747359118</v>
+        <v>2685.236891570192</v>
       </c>
       <c r="AC3" t="n">
-        <v>2300.276796203836</v>
+        <v>2428.96165139238</v>
       </c>
       <c r="AD3" t="n">
-        <v>1858568.00298083</v>
+        <v>1962542.252826046</v>
       </c>
       <c r="AE3" t="n">
-        <v>2542974.7359118</v>
+        <v>2685236.891570192</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.04103127467849e-06</v>
+        <v>1.759915021861045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.46180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2300276.796203835</v>
+        <v>2428961.65139238</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1486.162940723939</v>
+        <v>1569.478903869137</v>
       </c>
       <c r="AB4" t="n">
-        <v>2033.433700380101</v>
+        <v>2147.430276796241</v>
       </c>
       <c r="AC4" t="n">
-        <v>1839.365641957947</v>
+        <v>1942.48254511613</v>
       </c>
       <c r="AD4" t="n">
-        <v>1486162.940723939</v>
+        <v>1569478.903869137</v>
       </c>
       <c r="AE4" t="n">
-        <v>2033433.700380101</v>
+        <v>2147430.276796241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.190697026544823e-06</v>
+        <v>2.012932401237122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.01605902777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1839365.641957947</v>
+        <v>1942482.54511613</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1308.464546994227</v>
+        <v>1402.024223126311</v>
       </c>
       <c r="AB5" t="n">
-        <v>1790.298918579262</v>
+        <v>1918.311395024782</v>
       </c>
       <c r="AC5" t="n">
-        <v>1619.43530249037</v>
+        <v>1735.230447850568</v>
       </c>
       <c r="AD5" t="n">
-        <v>1308464.546994227</v>
+        <v>1402024.223126311</v>
       </c>
       <c r="AE5" t="n">
-        <v>1790298.918579262</v>
+        <v>1918311.395024782</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270244887174964e-06</v>
+        <v>2.147412006495024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.95052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1619435.30249037</v>
+        <v>1735230.447850568</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1206.222219803862</v>
+        <v>1289.367501239916</v>
       </c>
       <c r="AB6" t="n">
-        <v>1650.406455904272</v>
+        <v>1764.169498076016</v>
       </c>
       <c r="AC6" t="n">
-        <v>1492.893980112776</v>
+        <v>1595.799637207082</v>
       </c>
       <c r="AD6" t="n">
-        <v>1206222.219803862</v>
+        <v>1289367.501239916</v>
       </c>
       <c r="AE6" t="n">
-        <v>1650406.455904272</v>
+        <v>1764169.498076016</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321409473589656e-06</v>
+        <v>2.233908278421468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.33420138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1492893.980112776</v>
+        <v>1595799.637207082</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1117.982214424922</v>
+        <v>1201.212747206997</v>
       </c>
       <c r="AB7" t="n">
-        <v>1529.672587670515</v>
+        <v>1643.552274494909</v>
       </c>
       <c r="AC7" t="n">
-        <v>1383.682782812201</v>
+        <v>1486.693952157219</v>
       </c>
       <c r="AD7" t="n">
-        <v>1117982.214424922</v>
+        <v>1201212.747206997</v>
       </c>
       <c r="AE7" t="n">
-        <v>1529672.587670515</v>
+        <v>1643552.274494909</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.356981932392571e-06</v>
+        <v>2.294045284998065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.93272569444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1383682.782812201</v>
+        <v>1486693.952157219</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1066.350908039916</v>
+        <v>1149.581440821991</v>
       </c>
       <c r="AB8" t="n">
-        <v>1459.028356462072</v>
+        <v>1572.908043286466</v>
       </c>
       <c r="AC8" t="n">
-        <v>1319.780737880491</v>
+        <v>1422.791907225509</v>
       </c>
       <c r="AD8" t="n">
-        <v>1066350.908039916</v>
+        <v>1149581.440821991</v>
       </c>
       <c r="AE8" t="n">
-        <v>1459028.356462072</v>
+        <v>1572908.043286466</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377895923919744e-06</v>
+        <v>2.329401425347561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.70486111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1319780.737880491</v>
+        <v>1422791.907225509</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1063.064684595698</v>
+        <v>1146.295217377773</v>
       </c>
       <c r="AB9" t="n">
-        <v>1454.532000567746</v>
+        <v>1568.411687392139</v>
       </c>
       <c r="AC9" t="n">
-        <v>1315.713507882044</v>
+        <v>1418.724677227061</v>
       </c>
       <c r="AD9" t="n">
-        <v>1063064.684595698</v>
+        <v>1146295.217377773</v>
       </c>
       <c r="AE9" t="n">
-        <v>1454532.000567746</v>
+        <v>1568411.687392139</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.380136708726227e-06</v>
+        <v>2.333189583242149e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1315713.507882044</v>
+        <v>1418724.677227061</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2725.631563796102</v>
+        <v>2866.728831901001</v>
       </c>
       <c r="AB2" t="n">
-        <v>3729.329351964072</v>
+        <v>3922.384858957353</v>
       </c>
       <c r="AC2" t="n">
-        <v>3373.4073927591</v>
+        <v>3548.037953120039</v>
       </c>
       <c r="AD2" t="n">
-        <v>2725631.563796103</v>
+        <v>2866728.831901001</v>
       </c>
       <c r="AE2" t="n">
-        <v>3729329.351964072</v>
+        <v>3922384.858957353</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.096792266137777e-07</v>
+        <v>1.402195203595607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.88975694444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3373407.3927591</v>
+        <v>3548037.953120039</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1467.218824541194</v>
+        <v>1567.953821270652</v>
       </c>
       <c r="AB3" t="n">
-        <v>2007.513524863449</v>
+        <v>2145.343591503099</v>
       </c>
       <c r="AC3" t="n">
-        <v>1815.919251613409</v>
+        <v>1940.595010138684</v>
       </c>
       <c r="AD3" t="n">
-        <v>1467218.824541194</v>
+        <v>1567953.821270653</v>
       </c>
       <c r="AE3" t="n">
-        <v>2007513.524863449</v>
+        <v>2145343.591503099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167240063655911e-06</v>
+        <v>2.021415845813302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.95789930555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1815919.251613409</v>
+        <v>1940595.010138684</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1208.310132853411</v>
+        <v>1288.949424258272</v>
       </c>
       <c r="AB4" t="n">
-        <v>1653.263230650889</v>
+        <v>1763.597466705476</v>
       </c>
       <c r="AC4" t="n">
-        <v>1495.478108287084</v>
+        <v>1595.282199707695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1208310.132853411</v>
+        <v>1288949.424258272</v>
       </c>
       <c r="AE4" t="n">
-        <v>1653263.230650889</v>
+        <v>1763597.466705476</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301590988649322e-06</v>
+        <v>2.254083569563927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.10460069444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1495478.108287084</v>
+        <v>1595282.199707695</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1066.929996477031</v>
+        <v>1147.48394702732</v>
       </c>
       <c r="AB5" t="n">
-        <v>1459.820690809312</v>
+        <v>1570.038159741701</v>
       </c>
       <c r="AC5" t="n">
-        <v>1320.497452949678</v>
+        <v>1420.195921338349</v>
       </c>
       <c r="AD5" t="n">
-        <v>1066929.996477031</v>
+        <v>1147483.94702732</v>
       </c>
       <c r="AE5" t="n">
-        <v>1459820.690809312</v>
+        <v>1570038.159741701</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.374513309547975e-06</v>
+        <v>2.380369789141009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.24956597222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1320497.452949678</v>
+        <v>1420195.921338349</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>976.702903215929</v>
+        <v>1057.342105112238</v>
       </c>
       <c r="AB6" t="n">
-        <v>1336.368001271049</v>
+        <v>1446.702114856088</v>
       </c>
       <c r="AC6" t="n">
-        <v>1208.826914834009</v>
+        <v>1308.630895473393</v>
       </c>
       <c r="AD6" t="n">
-        <v>976702.9032159291</v>
+        <v>1057342.105112238</v>
       </c>
       <c r="AE6" t="n">
-        <v>1336368.001271049</v>
+        <v>1446702.114856088</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413920338589895e-06</v>
+        <v>2.448614527667433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.82421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1208826.914834009</v>
+        <v>1308630.895473393</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>976.5050175806248</v>
+        <v>1057.144219476934</v>
       </c>
       <c r="AB7" t="n">
-        <v>1336.097245414728</v>
+        <v>1446.431358999766</v>
       </c>
       <c r="AC7" t="n">
-        <v>1208.581999536607</v>
+        <v>1308.385980175991</v>
       </c>
       <c r="AD7" t="n">
-        <v>976505.0175806248</v>
+        <v>1057144.219476934</v>
       </c>
       <c r="AE7" t="n">
-        <v>1336097.245414728</v>
+        <v>1446431.358999766</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416141813266278e-06</v>
+        <v>2.452461657535344e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.80251736111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1208581.999536607</v>
+        <v>1308385.980175991</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1026.739965585752</v>
+        <v>1117.722940003762</v>
       </c>
       <c r="AB2" t="n">
-        <v>1404.830917484836</v>
+        <v>1529.317836969103</v>
       </c>
       <c r="AC2" t="n">
-        <v>1270.755826412659</v>
+        <v>1383.361889019837</v>
       </c>
       <c r="AD2" t="n">
-        <v>1026739.965585752</v>
+        <v>1117722.940003762</v>
       </c>
       <c r="AE2" t="n">
-        <v>1404830.917484836</v>
+        <v>1529317.836969103</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305379815342681e-06</v>
+        <v>2.470059514944718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.91883680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1270755.826412659</v>
+        <v>1383361.889019837</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.178009412424</v>
+        <v>858.1009343141469</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.315192087114</v>
+        <v>1174.091555070044</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.7840579651607</v>
+        <v>1062.037904902005</v>
       </c>
       <c r="AD3" t="n">
-        <v>785178.0094124239</v>
+        <v>858100.9343141469</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074315.192087114</v>
+        <v>1174091.555070044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.484718653910236e-06</v>
+        <v>2.809407189388906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75303819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>971784.0579651607</v>
+        <v>1062037.904902005</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1502.691359150736</v>
+        <v>1597.57241559444</v>
       </c>
       <c r="AB2" t="n">
-        <v>2056.048611654002</v>
+        <v>2185.869058937066</v>
       </c>
       <c r="AC2" t="n">
-        <v>1859.822217840094</v>
+        <v>1977.252783838604</v>
       </c>
       <c r="AD2" t="n">
-        <v>1502691.359150736</v>
+        <v>1597572.41559444</v>
       </c>
       <c r="AE2" t="n">
-        <v>2056048.611654002</v>
+        <v>2185869.058937066</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102405445367992e-06</v>
+        <v>2.008343306800332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.29730902777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1859822.217840094</v>
+        <v>1977252.783838604</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>945.6056243798914</v>
+        <v>1030.9046196815</v>
       </c>
       <c r="AB3" t="n">
-        <v>1293.819332452465</v>
+        <v>1410.529180950211</v>
       </c>
       <c r="AC3" t="n">
-        <v>1170.339031250039</v>
+        <v>1275.910255610461</v>
       </c>
       <c r="AD3" t="n">
-        <v>945605.6243798914</v>
+        <v>1030904.6196815</v>
       </c>
       <c r="AE3" t="n">
-        <v>1293819.332452465</v>
+        <v>1410529.180950211</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405020482980699e-06</v>
+        <v>2.559642184976442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1170339.031250039</v>
+        <v>1275910.255610461</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.1741503267209</v>
+        <v>928.9766043579083</v>
       </c>
       <c r="AB4" t="n">
-        <v>1167.350511864078</v>
+        <v>1271.066773637801</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.940217398503</v>
+        <v>1149.757944715229</v>
       </c>
       <c r="AD4" t="n">
-        <v>853174.1503267209</v>
+        <v>928976.6043579082</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167350.511864078</v>
+        <v>1271066.773637801</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468945976445734e-06</v>
+        <v>2.676100551064752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.23220486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055940.217398503</v>
+        <v>1149757.944715229</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>756.4466804948663</v>
+        <v>835.5851893439008</v>
       </c>
       <c r="AB2" t="n">
-        <v>1035.003720325338</v>
+        <v>1143.28451947719</v>
       </c>
       <c r="AC2" t="n">
-        <v>936.2244178943316</v>
+        <v>1034.171049548187</v>
       </c>
       <c r="AD2" t="n">
-        <v>756446.6804948663</v>
+        <v>835585.1893439008</v>
       </c>
       <c r="AE2" t="n">
-        <v>1035003.720325338</v>
+        <v>1143284.51947719</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462420048716416e-06</v>
+        <v>2.865872103060549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.61024305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>936224.4178943316</v>
+        <v>1034171.049548187</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>750.4588453512348</v>
+        <v>820.7947937417528</v>
       </c>
       <c r="AB3" t="n">
-        <v>1026.810900117178</v>
+        <v>1123.047647708129</v>
       </c>
       <c r="AC3" t="n">
-        <v>928.8135089481433</v>
+        <v>1015.865556418137</v>
       </c>
       <c r="AD3" t="n">
-        <v>750458.8453512348</v>
+        <v>820794.7937417527</v>
       </c>
       <c r="AE3" t="n">
-        <v>1026810.900117178</v>
+        <v>1123047.647708129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474844742586108e-06</v>
+        <v>2.89022049980297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46918402777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>928813.5089481433</v>
+        <v>1015865.556418137</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3002.639813571344</v>
+        <v>3134.924087450104</v>
       </c>
       <c r="AB2" t="n">
-        <v>4108.344260048061</v>
+        <v>4289.341439539273</v>
       </c>
       <c r="AC2" t="n">
-        <v>3716.249649966304</v>
+        <v>3879.972712678004</v>
       </c>
       <c r="AD2" t="n">
-        <v>3002639.813571344</v>
+        <v>3134924.087450104</v>
       </c>
       <c r="AE2" t="n">
-        <v>4108344.260048062</v>
+        <v>4289341.439539273</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.691917098205596e-07</v>
+        <v>1.323379881549006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3716249.649966304</v>
+        <v>3879972.712678004</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1565.791990041266</v>
+        <v>1657.28809710539</v>
       </c>
       <c r="AB3" t="n">
-        <v>2142.38567864179</v>
+        <v>2267.574688850285</v>
       </c>
       <c r="AC3" t="n">
-        <v>1937.919396329402</v>
+        <v>2051.160543107477</v>
       </c>
       <c r="AD3" t="n">
-        <v>1565791.990041266</v>
+        <v>1657288.09710539</v>
       </c>
       <c r="AE3" t="n">
-        <v>2142385.67864179</v>
+        <v>2267574.688850285</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134165327235417e-06</v>
+        <v>1.951310131467667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.31380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1937919.396329402</v>
+        <v>2051160.543107477</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1271.938595510484</v>
+        <v>1353.258996084593</v>
       </c>
       <c r="AB4" t="n">
-        <v>1740.322500347954</v>
+        <v>1851.588660016321</v>
       </c>
       <c r="AC4" t="n">
-        <v>1574.228563472714</v>
+        <v>1674.875637025369</v>
       </c>
       <c r="AD4" t="n">
-        <v>1271938.595510484</v>
+        <v>1353258.996084593</v>
       </c>
       <c r="AE4" t="n">
-        <v>1740322.500347954</v>
+        <v>1851588.660016321</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273148199642019e-06</v>
+        <v>2.190427551578313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1574228.563472714</v>
+        <v>1674875.637025369</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1128.498188435069</v>
+        <v>1209.733248154606</v>
       </c>
       <c r="AB5" t="n">
-        <v>1544.061007243229</v>
+        <v>1655.210399789398</v>
       </c>
       <c r="AC5" t="n">
-        <v>1396.697991815169</v>
+        <v>1497.239442335885</v>
       </c>
       <c r="AD5" t="n">
-        <v>1128498.188435069</v>
+        <v>1209733.248154606</v>
       </c>
       <c r="AE5" t="n">
-        <v>1544061.007243229</v>
+        <v>1655210.399789399</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.346659801576089e-06</v>
+        <v>2.316902881223614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.42534722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1396697.991815169</v>
+        <v>1497239.442335885</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1026.507677866968</v>
+        <v>1107.827988932525</v>
       </c>
       <c r="AB6" t="n">
-        <v>1404.513091180186</v>
+        <v>1515.779128379005</v>
       </c>
       <c r="AC6" t="n">
-        <v>1270.468333004452</v>
+        <v>1371.11529577588</v>
       </c>
       <c r="AD6" t="n">
-        <v>1026507.677866968</v>
+        <v>1107827.988932525</v>
       </c>
       <c r="AE6" t="n">
-        <v>1404513.091180186</v>
+        <v>1515779.128379005</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392221679858143e-06</v>
+        <v>2.395291236576691e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.91970486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1270468.333004452</v>
+        <v>1371115.29577588</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>996.1304592368111</v>
+        <v>1077.450770302368</v>
       </c>
       <c r="AB7" t="n">
-        <v>1362.949640502102</v>
+        <v>1474.215677700921</v>
       </c>
       <c r="AC7" t="n">
-        <v>1232.871639724415</v>
+        <v>1333.518602495843</v>
       </c>
       <c r="AD7" t="n">
-        <v>996130.4592368111</v>
+        <v>1077450.770302368</v>
       </c>
       <c r="AE7" t="n">
-        <v>1362949.640502102</v>
+        <v>1474215.677700921</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407249442232687e-06</v>
+        <v>2.421146219329702e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.76128472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1232871.639724415</v>
+        <v>1333518.602495843</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000.712046088142</v>
+        <v>1082.032357153699</v>
       </c>
       <c r="AB8" t="n">
-        <v>1369.218369757438</v>
+        <v>1480.484406956258</v>
       </c>
       <c r="AC8" t="n">
-        <v>1238.542090257839</v>
+        <v>1339.189053029267</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000712.046088142</v>
+        <v>1082032.357153699</v>
       </c>
       <c r="AE8" t="n">
-        <v>1369218.369757439</v>
+        <v>1480484.406956258</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.420816856492084e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.76345486111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1238542.090257839</v>
+        <v>1339189.053029267</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.0620826635661</v>
+        <v>800.0019760354874</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000.271393683134</v>
+        <v>1094.59799720804</v>
       </c>
       <c r="AC2" t="n">
-        <v>904.8068957597332</v>
+        <v>990.1311006324418</v>
       </c>
       <c r="AD2" t="n">
-        <v>731062.0826635661</v>
+        <v>800001.9760354874</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000271.393683134</v>
+        <v>1094597.99720804</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.451824474232737e-06</v>
+        <v>2.910414997281395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.12239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>904806.8957597332</v>
+        <v>990131.1006324418</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2046.673632758648</v>
+        <v>2164.359312835856</v>
       </c>
       <c r="AB2" t="n">
-        <v>2800.349157208509</v>
+        <v>2961.371896615923</v>
       </c>
       <c r="AC2" t="n">
-        <v>2533.087763959255</v>
+        <v>2678.742719114459</v>
       </c>
       <c r="AD2" t="n">
-        <v>2046673.632758648</v>
+        <v>2164359.312835856</v>
       </c>
       <c r="AE2" t="n">
-        <v>2800349.157208509</v>
+        <v>2961371.896615922</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428890901383864e-07</v>
+        <v>1.669926641800293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.90364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2533087.763959255</v>
+        <v>2678742.719114459</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1205.533489485027</v>
+        <v>1293.77641432929</v>
       </c>
       <c r="AB3" t="n">
-        <v>1649.464104697405</v>
+        <v>1770.201967472415</v>
       </c>
       <c r="AC3" t="n">
-        <v>1492.041565582495</v>
+        <v>1601.256376190913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1205533.489485027</v>
+        <v>1293776.41432929</v>
       </c>
       <c r="AE3" t="n">
-        <v>1649464.104697405</v>
+        <v>1770201.967472415</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274865660555448e-06</v>
+        <v>2.257881816158686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.94010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1492041.565582495</v>
+        <v>1601256.376190913</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>994.6380603071184</v>
+        <v>1072.981482061046</v>
       </c>
       <c r="AB4" t="n">
-        <v>1360.907674446502</v>
+        <v>1468.100600358061</v>
       </c>
       <c r="AC4" t="n">
-        <v>1231.024556043245</v>
+        <v>1327.987139552022</v>
       </c>
       <c r="AD4" t="n">
-        <v>994638.0603071183</v>
+        <v>1072981.482061046</v>
       </c>
       <c r="AE4" t="n">
-        <v>1360907.674446502</v>
+        <v>1468100.600358061</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.399555901182719e-06</v>
+        <v>2.47871749765481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1231024.556043244</v>
+        <v>1327987.139552022</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>910.1436313637364</v>
+        <v>988.5723044636843</v>
       </c>
       <c r="AB5" t="n">
-        <v>1245.298669135045</v>
+        <v>1352.608239699254</v>
       </c>
       <c r="AC5" t="n">
-        <v>1126.449111940455</v>
+        <v>1223.517207699944</v>
       </c>
       <c r="AD5" t="n">
-        <v>910143.6313637363</v>
+        <v>988572.3044636843</v>
       </c>
       <c r="AE5" t="n">
-        <v>1245298.669135045</v>
+        <v>1352608.239699254</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.557499261125494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1126449.111940455</v>
+        <v>1223517.207699944</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>912.8531724461064</v>
+        <v>991.2818455460545</v>
       </c>
       <c r="AB6" t="n">
-        <v>1249.00598278046</v>
+        <v>1356.315553344669</v>
       </c>
       <c r="AC6" t="n">
-        <v>1129.802604774799</v>
+        <v>1226.870700534288</v>
       </c>
       <c r="AD6" t="n">
-        <v>912853.1724461064</v>
+        <v>991281.8455460544</v>
       </c>
       <c r="AE6" t="n">
-        <v>1249005.98278046</v>
+        <v>1356315.553344669</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.557499261125494e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1129802.604774799</v>
+        <v>1226870.700534288</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2481.407070392118</v>
+        <v>2611.35022155728</v>
       </c>
       <c r="AB2" t="n">
-        <v>3395.170625664492</v>
+        <v>3572.964577775914</v>
       </c>
       <c r="AC2" t="n">
-        <v>3071.140306302847</v>
+        <v>3231.965853160126</v>
       </c>
       <c r="AD2" t="n">
-        <v>2481407.070392118</v>
+        <v>2611350.22155728</v>
       </c>
       <c r="AE2" t="n">
-        <v>3395170.625664493</v>
+        <v>3572964.577775914</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.51886045991204e-07</v>
+        <v>1.48561487819692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.83940972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3071140.306302846</v>
+        <v>3231965.853160126</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1382.51265464812</v>
+        <v>1472.53237989255</v>
       </c>
       <c r="AB3" t="n">
-        <v>1891.61480624327</v>
+        <v>2014.783765712692</v>
       </c>
       <c r="AC3" t="n">
-        <v>1711.081744033467</v>
+        <v>1822.495630879847</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382512.65464812</v>
+        <v>1472532.37989255</v>
       </c>
       <c r="AE3" t="n">
-        <v>1891614.80624327</v>
+        <v>2014783.765712691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201337755826671e-06</v>
+        <v>2.09502814630471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.61284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1711081.744033467</v>
+        <v>1822495.630879847</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1131.977358350942</v>
+        <v>1221.82640188623</v>
       </c>
       <c r="AB4" t="n">
-        <v>1548.82136101227</v>
+        <v>1671.756786237296</v>
       </c>
       <c r="AC4" t="n">
-        <v>1401.004024101691</v>
+        <v>1512.206664884194</v>
       </c>
       <c r="AD4" t="n">
-        <v>1131977.358350942</v>
+        <v>1221826.40188623</v>
       </c>
       <c r="AE4" t="n">
-        <v>1548821.36101227</v>
+        <v>1671756.786237296</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332089637213212e-06</v>
+        <v>2.323048010292586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1401004.024101691</v>
+        <v>1512206.664884194</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1005.269620661287</v>
+        <v>1075.285052026617</v>
       </c>
       <c r="AB5" t="n">
-        <v>1375.454244354415</v>
+        <v>1471.252446411291</v>
       </c>
       <c r="AC5" t="n">
-        <v>1244.182821735385</v>
+        <v>1330.838177841574</v>
       </c>
       <c r="AD5" t="n">
-        <v>1005269.620661287</v>
+        <v>1075285.052026617</v>
       </c>
       <c r="AE5" t="n">
-        <v>1375454.244354415</v>
+        <v>1471252.446411291</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4033645255753e-06</v>
+        <v>2.447345191929526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1244182.821735386</v>
+        <v>1330838.177841574</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>953.4806255437981</v>
+        <v>1033.412818239831</v>
       </c>
       <c r="AB6" t="n">
-        <v>1304.594256465454</v>
+        <v>1413.96100887163</v>
       </c>
       <c r="AC6" t="n">
-        <v>1180.085611637929</v>
+        <v>1279.014554691661</v>
       </c>
       <c r="AD6" t="n">
-        <v>953480.6255437981</v>
+        <v>1033412.818239832</v>
       </c>
       <c r="AE6" t="n">
-        <v>1304594.256465454</v>
+        <v>1413961.00887163</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.4850934468179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84809027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1180085.611637929</v>
+        <v>1279014.554691661</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>957.3665852313023</v>
+        <v>1037.298777927336</v>
       </c>
       <c r="AB7" t="n">
-        <v>1309.911197946339</v>
+        <v>1419.277950352516</v>
       </c>
       <c r="AC7" t="n">
-        <v>1184.895111686253</v>
+        <v>1283.824054739985</v>
       </c>
       <c r="AD7" t="n">
-        <v>957366.5852313023</v>
+        <v>1037298.777927336</v>
       </c>
       <c r="AE7" t="n">
-        <v>1309911.197946339</v>
+        <v>1419277.950352516</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.4850934468179e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84809027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1184895.111686253</v>
+        <v>1283824.054739985</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3613.148108069258</v>
+        <v>3768.038895726407</v>
       </c>
       <c r="AB2" t="n">
-        <v>4943.668642305222</v>
+        <v>5155.597051277026</v>
       </c>
       <c r="AC2" t="n">
-        <v>4471.851845565943</v>
+        <v>4663.55410462886</v>
       </c>
       <c r="AD2" t="n">
-        <v>3613148.108069258</v>
+        <v>3768038.895726407</v>
       </c>
       <c r="AE2" t="n">
-        <v>4943668.642305222</v>
+        <v>5155597.051277027</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.935143126306435e-07</v>
+        <v>1.178928367854832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.44878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4471851.845565943</v>
+        <v>4663554.10462886</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1758.414338565957</v>
+        <v>1851.451255989152</v>
       </c>
       <c r="AB3" t="n">
-        <v>2405.940073791537</v>
+        <v>2533.237288709068</v>
       </c>
       <c r="AC3" t="n">
-        <v>2176.320529906973</v>
+        <v>2291.468677295539</v>
       </c>
       <c r="AD3" t="n">
-        <v>1758414.338565957</v>
+        <v>1851451.255989152</v>
       </c>
       <c r="AE3" t="n">
-        <v>2405940.073791537</v>
+        <v>2533237.288709068</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072034405641968e-06</v>
+        <v>1.822387439033029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.05164930555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2176320.529906973</v>
+        <v>2291468.677295539</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1408.302801517581</v>
+        <v>1501.254288577654</v>
       </c>
       <c r="AB4" t="n">
-        <v>1926.902022971047</v>
+        <v>2054.082348296833</v>
       </c>
       <c r="AC4" t="n">
-        <v>1743.001198322665</v>
+        <v>1858.043611898065</v>
       </c>
       <c r="AD4" t="n">
-        <v>1408302.801517581</v>
+        <v>1501254.288577654</v>
       </c>
       <c r="AE4" t="n">
-        <v>1926902.022971048</v>
+        <v>2054082.348296833</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216873396975739e-06</v>
+        <v>2.06860412489659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.78385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1743001.198322664</v>
+        <v>1858043.611898065</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1248.237046156204</v>
+        <v>1330.936448746999</v>
       </c>
       <c r="AB5" t="n">
-        <v>1707.892994882867</v>
+        <v>1821.045965947741</v>
       </c>
       <c r="AC5" t="n">
-        <v>1544.894084494119</v>
+        <v>1647.247894811754</v>
       </c>
       <c r="AD5" t="n">
-        <v>1248237.046156204</v>
+        <v>1330936.448746999</v>
       </c>
       <c r="AE5" t="n">
-        <v>1707892.994882867</v>
+        <v>1821045.965947741</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295457255171775e-06</v>
+        <v>2.2021914755763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.76605902777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1544894.084494119</v>
+        <v>1647247.894811754</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1148.004024683963</v>
+        <v>1220.36609145946</v>
       </c>
       <c r="AB6" t="n">
-        <v>1570.749752935727</v>
+        <v>1669.75872508704</v>
       </c>
       <c r="AC6" t="n">
-        <v>1420.839601076665</v>
+        <v>1510.399295885822</v>
       </c>
       <c r="AD6" t="n">
-        <v>1148004.024683963</v>
+        <v>1220366.09145946</v>
       </c>
       <c r="AE6" t="n">
-        <v>1570749.752935727</v>
+        <v>1669758.72508704</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345901504265278e-06</v>
+        <v>2.287943355773096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1420839.601076665</v>
+        <v>1510399.295885822</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1062.923814413183</v>
+        <v>1145.537876149406</v>
       </c>
       <c r="AB7" t="n">
-        <v>1454.339255769275</v>
+        <v>1567.375459711951</v>
       </c>
       <c r="AC7" t="n">
-        <v>1315.53915837662</v>
+        <v>1417.787345662316</v>
       </c>
       <c r="AD7" t="n">
-        <v>1062923.814413183</v>
+        <v>1145537.876149406</v>
       </c>
       <c r="AE7" t="n">
-        <v>1454339.255769275</v>
+        <v>1567375.459711951</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379311408049221e-06</v>
+        <v>2.344737977918362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.80685763888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1315539.15837662</v>
+        <v>1417787.345662316</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1037.455448196737</v>
+        <v>1120.06950993296</v>
       </c>
       <c r="AB8" t="n">
-        <v>1419.492313526915</v>
+        <v>1532.528517469591</v>
       </c>
       <c r="AC8" t="n">
-        <v>1284.01795939388</v>
+        <v>1386.266146679576</v>
       </c>
       <c r="AD8" t="n">
-        <v>1037455.448196737</v>
+        <v>1120069.50993296</v>
       </c>
       <c r="AE8" t="n">
-        <v>1419492.313526915</v>
+        <v>1532528.517469591</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389004985766816e-06</v>
+        <v>2.361216417583045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.70486111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1284017.95939388</v>
+        <v>1386266.146679576</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1041.810948381517</v>
+        <v>1124.42501011774</v>
       </c>
       <c r="AB9" t="n">
-        <v>1425.451701030837</v>
+        <v>1538.487904973513</v>
       </c>
       <c r="AC9" t="n">
-        <v>1289.408591318481</v>
+        <v>1391.656778604177</v>
       </c>
       <c r="AD9" t="n">
-        <v>1041810.948381517</v>
+        <v>1124425.01011774</v>
       </c>
       <c r="AE9" t="n">
-        <v>1425451.701030837</v>
+        <v>1538487.904973513</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388910873361791e-06</v>
+        <v>2.361056432731932e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.70486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1289408.591318481</v>
+        <v>1391656.778604177</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1672.969231649229</v>
+        <v>1769.05078476932</v>
       </c>
       <c r="AB2" t="n">
-        <v>2289.030308935995</v>
+        <v>2420.493328733867</v>
       </c>
       <c r="AC2" t="n">
-        <v>2070.56846892536</v>
+        <v>2189.484842623229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1672969.231649229</v>
+        <v>1769050.78476932</v>
       </c>
       <c r="AE2" t="n">
-        <v>2289030.308935995</v>
+        <v>2420493.328733867</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046864155130927e-06</v>
+        <v>1.887743801574503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.10677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2070568.46892536</v>
+        <v>2189484.842623229</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1038.445488237273</v>
+        <v>1115.225407780484</v>
       </c>
       <c r="AB3" t="n">
-        <v>1420.84692998786</v>
+        <v>1525.900603197869</v>
       </c>
       <c r="AC3" t="n">
-        <v>1285.243293161009</v>
+        <v>1380.270791243611</v>
       </c>
       <c r="AD3" t="n">
-        <v>1038445.488237273</v>
+        <v>1115225.407780484</v>
       </c>
       <c r="AE3" t="n">
-        <v>1420846.92998786</v>
+        <v>1525900.603197869</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359233268916347e-06</v>
+        <v>2.45101923273873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.25434027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1285243.293161009</v>
+        <v>1380270.791243611</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>881.3826002573431</v>
+        <v>948.6397142939722</v>
       </c>
       <c r="AB4" t="n">
-        <v>1205.946557528136</v>
+        <v>1297.970708127511</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.852710634274</v>
+        <v>1174.094205457151</v>
       </c>
       <c r="AD4" t="n">
-        <v>881382.6002573431</v>
+        <v>948639.7142939722</v>
       </c>
       <c r="AE4" t="n">
-        <v>1205946.557528136</v>
+        <v>1297970.708127511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457688592589913e-06</v>
+        <v>2.628557479784299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15842013888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090852.710634274</v>
+        <v>1174094.20545715</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>878.6355215713343</v>
+        <v>945.892635607963</v>
       </c>
       <c r="AB5" t="n">
-        <v>1202.18788327738</v>
+        <v>1294.212033876755</v>
       </c>
       <c r="AC5" t="n">
-        <v>1087.452758978678</v>
+        <v>1170.694253801554</v>
       </c>
       <c r="AD5" t="n">
-        <v>878635.5215713342</v>
+        <v>945892.6356079631</v>
       </c>
       <c r="AE5" t="n">
-        <v>1202187.88327738</v>
+        <v>1294212.033876755</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461659386409219e-06</v>
+        <v>2.635717760688929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1087452.758978678</v>
+        <v>1170694.253801554</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1183.194684188202</v>
+        <v>1275.626548328392</v>
       </c>
       <c r="AB2" t="n">
-        <v>1618.899165771753</v>
+        <v>1745.368520094411</v>
       </c>
       <c r="AC2" t="n">
-        <v>1464.393701529745</v>
+        <v>1578.792998176703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1183194.684188202</v>
+        <v>1275626.548328392</v>
       </c>
       <c r="AE2" t="n">
-        <v>1618899.165771753</v>
+        <v>1745368.520094411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229102861209837e-06</v>
+        <v>2.29311306521385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.72612847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1464393.701529745</v>
+        <v>1578792.998176703</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>808.5500505246192</v>
+        <v>882.5638145204291</v>
       </c>
       <c r="AB3" t="n">
-        <v>1106.293849838501</v>
+        <v>1207.562746994385</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000.710717503084</v>
+        <v>1092.314653246201</v>
       </c>
       <c r="AD3" t="n">
-        <v>808550.0505246192</v>
+        <v>882563.8145204291</v>
       </c>
       <c r="AE3" t="n">
-        <v>1106293.849838501</v>
+        <v>1207562.746994385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.480035415323434e-06</v>
+        <v>2.761273002421199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.55121527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000710.717503084</v>
+        <v>1092314.653246201</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>812.2445778732773</v>
+        <v>886.2583418690874</v>
       </c>
       <c r="AB4" t="n">
-        <v>1111.348865147979</v>
+        <v>1212.617762303863</v>
       </c>
       <c r="AC4" t="n">
-        <v>1005.283289246184</v>
+        <v>1096.8872249893</v>
       </c>
       <c r="AD4" t="n">
-        <v>812244.5778732774</v>
+        <v>886258.3418690874</v>
       </c>
       <c r="AE4" t="n">
-        <v>1111348.865147979</v>
+        <v>1212617.762303863</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481732338766298e-06</v>
+        <v>2.76443891915633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.53168402777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1005283.289246184</v>
+        <v>1096887.2249893</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>884.1419255211093</v>
+        <v>955.8765962016021</v>
       </c>
       <c r="AB2" t="n">
-        <v>1209.72198808686</v>
+        <v>1307.872529222226</v>
       </c>
       <c r="AC2" t="n">
-        <v>1094.267819399323</v>
+        <v>1183.05101064388</v>
       </c>
       <c r="AD2" t="n">
-        <v>884141.9255211094</v>
+        <v>955876.596201602</v>
       </c>
       <c r="AE2" t="n">
-        <v>1209721.98808686</v>
+        <v>1307872.529222226</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38950024280913e-06</v>
+        <v>2.672060494603939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1094267.819399323</v>
+        <v>1183051.01064388</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.6146798040349</v>
+        <v>844.2640096299563</v>
       </c>
       <c r="AB3" t="n">
-        <v>1057.125490261931</v>
+        <v>1155.159264275099</v>
       </c>
       <c r="AC3" t="n">
-        <v>956.2349171562756</v>
+        <v>1044.912485368893</v>
       </c>
       <c r="AD3" t="n">
-        <v>772614.679804035</v>
+        <v>844264.0096299562</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057125.490261931</v>
+        <v>1155159.264275099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482645580838736e-06</v>
+        <v>2.85118243380005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.05902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>956234.9171562756</v>
+        <v>1044912.485368893</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.6565018995334</v>
+        <v>794.1898513044366</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.2975307861875</v>
+        <v>1086.64559173817</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.4529945147053</v>
+        <v>982.9376615793451</v>
       </c>
       <c r="AD2" t="n">
-        <v>718656.5018995334</v>
+        <v>794189.8513044366</v>
       </c>
       <c r="AE2" t="n">
-        <v>983297.5307861875</v>
+        <v>1086645.59173817</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.399862574404617e-06</v>
+        <v>2.887355595968065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>889452.9945147054</v>
+        <v>982937.6615793451</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2260.107682852464</v>
+        <v>2388.769938755758</v>
       </c>
       <c r="AB2" t="n">
-        <v>3092.379040592784</v>
+        <v>3268.420415297805</v>
       </c>
       <c r="AC2" t="n">
-        <v>2797.246725139734</v>
+        <v>2956.486958118523</v>
       </c>
       <c r="AD2" t="n">
-        <v>2260107.682852464</v>
+        <v>2388769.938755758</v>
       </c>
       <c r="AE2" t="n">
-        <v>3092379.040592784</v>
+        <v>3268420.415297805</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952510462696827e-07</v>
+        <v>1.572920772633339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.87152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2797246.725139734</v>
+        <v>2956486.958118523</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1297.141418182347</v>
+        <v>1386.162859713442</v>
       </c>
       <c r="AB3" t="n">
-        <v>1774.806114197661</v>
+        <v>1896.609177849326</v>
       </c>
       <c r="AC3" t="n">
-        <v>1605.421109614662</v>
+        <v>1715.599459823085</v>
       </c>
       <c r="AD3" t="n">
-        <v>1297141.418182347</v>
+        <v>1386162.859713441</v>
       </c>
       <c r="AE3" t="n">
-        <v>1774806.114197661</v>
+        <v>1896609.177849326</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237752766534335e-06</v>
+        <v>2.174682784207287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1605421.109614662</v>
+        <v>1715599.459823085</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1065.268450285009</v>
+        <v>1144.550258046508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1457.547290007142</v>
+        <v>1566.024157052931</v>
       </c>
       <c r="AC4" t="n">
-        <v>1318.44102232933</v>
+        <v>1416.565009432507</v>
       </c>
       <c r="AD4" t="n">
-        <v>1065268.450285009</v>
+        <v>1144550.258046508</v>
       </c>
       <c r="AE4" t="n">
-        <v>1457547.290007142</v>
+        <v>1566024.157052931</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364393713130179e-06</v>
+        <v>2.397185931672524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1318441.02232933</v>
+        <v>1416565.009432507</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>942.4688629473574</v>
+        <v>1021.665329854285</v>
       </c>
       <c r="AB5" t="n">
-        <v>1289.527477076325</v>
+        <v>1397.887576999915</v>
       </c>
       <c r="AC5" t="n">
-        <v>1166.45678452734</v>
+        <v>1264.475148598579</v>
       </c>
       <c r="AD5" t="n">
-        <v>942468.8629473574</v>
+        <v>1021665.329854285</v>
       </c>
       <c r="AE5" t="n">
-        <v>1289527.477076325</v>
+        <v>1397887.576999915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428206569579717e-06</v>
+        <v>2.509302603179114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.96310763888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1166456.78452734</v>
+        <v>1264475.148598579</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>931.0762953275647</v>
+        <v>1010.272762234492</v>
       </c>
       <c r="AB6" t="n">
-        <v>1273.939663454312</v>
+        <v>1382.299763377903</v>
       </c>
       <c r="AC6" t="n">
-        <v>1152.356649959779</v>
+        <v>1250.375014031018</v>
       </c>
       <c r="AD6" t="n">
-        <v>931076.2953275647</v>
+        <v>1010272.762234492</v>
       </c>
       <c r="AE6" t="n">
-        <v>1273939.663454312</v>
+        <v>1382299.763377903</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435789270114616e-06</v>
+        <v>2.522625108898261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.88498263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1152356.649959779</v>
+        <v>1250375.014031018</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3297.502728495659</v>
+        <v>3441.028171963455</v>
       </c>
       <c r="AB2" t="n">
-        <v>4511.78870868125</v>
+        <v>4708.166552329585</v>
       </c>
       <c r="AC2" t="n">
-        <v>4081.189926659764</v>
+        <v>4258.825744528329</v>
       </c>
       <c r="AD2" t="n">
-        <v>3297502.728495659</v>
+        <v>3441028.171963456</v>
       </c>
       <c r="AE2" t="n">
-        <v>4511788.70868125</v>
+        <v>4708166.552329585</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.301237816822869e-07</v>
+        <v>1.248430299933453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.20529513888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4081189.926659764</v>
+        <v>4258825.744528329</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1654.876269493853</v>
+        <v>1757.369996363437</v>
       </c>
       <c r="AB3" t="n">
-        <v>2264.274719909855</v>
+        <v>2404.511158716923</v>
       </c>
       <c r="AC3" t="n">
-        <v>2048.175518571186</v>
+        <v>2175.027988481586</v>
       </c>
       <c r="AD3" t="n">
-        <v>1654876.269493853</v>
+        <v>1757369.996363437</v>
       </c>
       <c r="AE3" t="n">
-        <v>2264274.719909855</v>
+        <v>2404511.158716923</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102682394482476e-06</v>
+        <v>1.885464008997494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.67621527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2048175.518571186</v>
+        <v>2175027.988481586</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1340.632325424352</v>
+        <v>1432.868145521521</v>
       </c>
       <c r="AB4" t="n">
-        <v>1834.312292169585</v>
+        <v>1960.513410383727</v>
       </c>
       <c r="AC4" t="n">
-        <v>1659.248101478391</v>
+        <v>1773.404762094557</v>
       </c>
       <c r="AD4" t="n">
-        <v>1340632.325424352</v>
+        <v>1432868.145521521</v>
       </c>
       <c r="AE4" t="n">
-        <v>1834312.292169585</v>
+        <v>1960513.410383727</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244171159557638e-06</v>
+        <v>2.1273940294291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.55164930555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1659248.101478391</v>
+        <v>1773404.762094557</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1187.98945543709</v>
+        <v>1270.052709616414</v>
       </c>
       <c r="AB5" t="n">
-        <v>1625.459583324861</v>
+        <v>1737.742148068274</v>
       </c>
       <c r="AC5" t="n">
-        <v>1470.328002039189</v>
+        <v>1571.894476393059</v>
       </c>
       <c r="AD5" t="n">
-        <v>1187989.45543709</v>
+        <v>1270052.709616415</v>
       </c>
       <c r="AE5" t="n">
-        <v>1625459.583324861</v>
+        <v>1737742.148068273</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320656702582842e-06</v>
+        <v>2.258175784270062e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.59461805555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1470328.002039189</v>
+        <v>1571894.476393059</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.172536586505</v>
+        <v>1162.977973501964</v>
       </c>
       <c r="AB6" t="n">
-        <v>1492.99040369248</v>
+        <v>1591.237770312515</v>
       </c>
       <c r="AC6" t="n">
-        <v>1350.501494989261</v>
+        <v>1439.372270830125</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091172.536586504</v>
+        <v>1162977.973501964</v>
       </c>
       <c r="AE6" t="n">
-        <v>1492990.40369248</v>
+        <v>1591237.770312515</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369717528567992e-06</v>
+        <v>2.342064329248694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1350501.494989261</v>
+        <v>1439372.270830125</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1019.499640791031</v>
+        <v>1101.477554115784</v>
       </c>
       <c r="AB7" t="n">
-        <v>1394.924385680112</v>
+        <v>1507.090183301327</v>
       </c>
       <c r="AC7" t="n">
-        <v>1261.794760099473</v>
+        <v>1363.255611421405</v>
       </c>
       <c r="AD7" t="n">
-        <v>1019499.64079103</v>
+        <v>1101477.554115783</v>
       </c>
       <c r="AE7" t="n">
-        <v>1394924.385680112</v>
+        <v>1507090.183301327</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.396477979105346e-06</v>
+        <v>2.387821717418857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.74609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1261794.760099473</v>
+        <v>1363255.611421405</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1019.990915952687</v>
+        <v>1101.96882927744</v>
       </c>
       <c r="AB8" t="n">
-        <v>1395.596570029821</v>
+        <v>1507.762367651036</v>
       </c>
       <c r="AC8" t="n">
-        <v>1262.402792118262</v>
+        <v>1363.863643440194</v>
       </c>
       <c r="AD8" t="n">
-        <v>1019990.915952687</v>
+        <v>1101968.82927744</v>
       </c>
       <c r="AE8" t="n">
-        <v>1395596.570029821</v>
+        <v>1507762.367651036</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397711616896075e-06</v>
+        <v>2.389931100561454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.73307291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1262402.792118262</v>
+        <v>1363863.643440194</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.1126837436542</v>
+        <v>808.5445560233024</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.9216989106362</v>
+        <v>1106.2863320194</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.017592909382</v>
+        <v>1000.703917174086</v>
       </c>
       <c r="AD2" t="n">
-        <v>719112.6837436542</v>
+        <v>808544.5560233025</v>
       </c>
       <c r="AE2" t="n">
-        <v>983921.6989106362</v>
+        <v>1106286.3320194</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27933983481902e-06</v>
+        <v>2.742214517741991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>890017.592909382</v>
+        <v>1000703.917174086</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1339.295493220211</v>
+        <v>1432.907340770413</v>
       </c>
       <c r="AB2" t="n">
-        <v>1832.483179371006</v>
+        <v>1960.567039052434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1657.593556638131</v>
+        <v>1773.453272518391</v>
       </c>
       <c r="AD2" t="n">
-        <v>1339295.493220211</v>
+        <v>1432907.340770413</v>
       </c>
       <c r="AE2" t="n">
-        <v>1832483.179371006</v>
+        <v>1960567.039052434</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163425764840645e-06</v>
+        <v>2.143533481320691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49435763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1657593.556638131</v>
+        <v>1773453.272518391</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.2089934633312</v>
+        <v>939.2349452639663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1182.448871066509</v>
+        <v>1285.10268823153</v>
       </c>
       <c r="AC3" t="n">
-        <v>1069.597610389334</v>
+        <v>1162.454291319663</v>
       </c>
       <c r="AD3" t="n">
-        <v>864208.9934633313</v>
+        <v>939234.9452639663</v>
       </c>
       <c r="AE3" t="n">
-        <v>1182448.871066509</v>
+        <v>1285102.68823153</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450833315443572e-06</v>
+        <v>2.67306250338608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.63151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1069597.610389334</v>
+        <v>1162454.291319663</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>832.5413571337281</v>
+        <v>907.3967167337712</v>
       </c>
       <c r="AB4" t="n">
-        <v>1139.119813962832</v>
+        <v>1241.540219353006</v>
       </c>
       <c r="AC4" t="n">
-        <v>1030.403817682919</v>
+        <v>1123.049363330596</v>
       </c>
       <c r="AD4" t="n">
-        <v>832541.3571337281</v>
+        <v>907396.7167337711</v>
       </c>
       <c r="AE4" t="n">
-        <v>1139119.813962832</v>
+        <v>1241540.219353006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476438715406378e-06</v>
+        <v>2.720238725351905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.36241319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1030403.817682919</v>
+        <v>1123049.363330596</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1849.229934306503</v>
+        <v>1965.624423488188</v>
       </c>
       <c r="AB2" t="n">
-        <v>2530.197978385071</v>
+        <v>2689.454053445908</v>
       </c>
       <c r="AC2" t="n">
-        <v>2288.719434483166</v>
+        <v>2432.776333257501</v>
       </c>
       <c r="AD2" t="n">
-        <v>1849229.934306503</v>
+        <v>1965624.423488188</v>
       </c>
       <c r="AE2" t="n">
-        <v>2530197.978385071</v>
+        <v>2689454.053445908</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.930434239310477e-07</v>
+        <v>1.773999606251203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.99001736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2288719.434483165</v>
+        <v>2432776.333257501</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1122.997695137254</v>
+        <v>1210.336232450804</v>
       </c>
       <c r="AB3" t="n">
-        <v>1536.53498964852</v>
+        <v>1656.035429505247</v>
       </c>
       <c r="AC3" t="n">
-        <v>1389.890246776867</v>
+        <v>1497.985732373588</v>
       </c>
       <c r="AD3" t="n">
-        <v>1122997.695137254</v>
+        <v>1210336.232450804</v>
       </c>
       <c r="AE3" t="n">
-        <v>1536534.98964852</v>
+        <v>1656035.429505247</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315236659661843e-06</v>
+        <v>2.349574308775911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.60373263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1389890.246776867</v>
+        <v>1497985.732373588</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>926.601503950448</v>
+        <v>1004.141025677075</v>
       </c>
       <c r="AB4" t="n">
-        <v>1267.817056478279</v>
+        <v>1373.91005090692</v>
       </c>
       <c r="AC4" t="n">
-        <v>1146.818376000406</v>
+        <v>1242.78600394323</v>
       </c>
       <c r="AD4" t="n">
-        <v>926601.503950448</v>
+        <v>1004141.025677075</v>
       </c>
       <c r="AE4" t="n">
-        <v>1267817.056478278</v>
+        <v>1373910.05090692</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.434675563725694e-06</v>
+        <v>2.56294319444013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.21918402777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1146818.376000406</v>
+        <v>1242786.00394323</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>900.1902258130073</v>
+        <v>968.1866650078748</v>
       </c>
       <c r="AB5" t="n">
-        <v>1231.679980547275</v>
+        <v>1324.715708444876</v>
       </c>
       <c r="AC5" t="n">
-        <v>1114.130171877553</v>
+        <v>1198.28670048107</v>
       </c>
       <c r="AD5" t="n">
-        <v>900190.2258130072</v>
+        <v>968186.6650078748</v>
       </c>
       <c r="AE5" t="n">
-        <v>1231679.980547275</v>
+        <v>1324715.708444876</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451982633227786e-06</v>
+        <v>2.593861011065443e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1114130.171877553</v>
+        <v>1198286.70048107</v>
       </c>
     </row>
   </sheetData>
